--- a/Phase 3 - Language Definition/Language_Definition_Spreadsheet.xlsx
+++ b/Phase 3 - Language Definition/Language_Definition_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roans\OneDrive\Desktop\UniTrento\MASTER\UNITRNT\KGE\PROJECT\Phases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269E01D9-B8CE-4C93-8823-0065DA6C4CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAF40A2-F54D-4CF3-A1D1-3306AE5DB425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11412" windowHeight="11796" xr2:uid="{1AB0E819-A3E6-4AC3-B4B0-A981FF41647F}"/>
+    <workbookView xWindow="132" yWindow="252" windowWidth="14724" windowHeight="11796" xr2:uid="{1AB0E819-A3E6-4AC3-B4B0-A981FF41647F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -437,16 +437,16 @@
     <t>a person having origin, association, or ownership related to a source, place, or entity</t>
   </si>
   <si>
-    <t>have or possess a phenotype, either in a concrete or an abstract sense</t>
-  </si>
-  <si>
-    <t>have or possess a SGB, either in a concrete or an abstract sense</t>
-  </si>
-  <si>
-    <t>have or possess a taxonomy, either in a concrete or an abstract sense</t>
-  </si>
-  <si>
-    <t>have or possess a transmission type, either in a concrete or an abstract sense</t>
+    <t>have or possess a taxonomy</t>
+  </si>
+  <si>
+    <t>have or possess a transmission type</t>
+  </si>
+  <si>
+    <t>have or possess a SGB</t>
+  </si>
+  <si>
+    <t>have or possess a phenotype</t>
   </si>
 </sst>
 </file>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF294AB-FC49-4B46-A4D6-109AF2CD29AA}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1377,7 +1377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
@@ -1399,7 +1399,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>129</v>
       </c>
@@ -1429,10 +1429,10 @@
         <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>130</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Phase 3 - Language Definition/Language_Definition_Spreadsheet.xlsx
+++ b/Phase 3 - Language Definition/Language_Definition_Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roans\OneDrive\Desktop\UniTrento\MASTER\UNITRNT\KGE\PROJECT\Phases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAF40A2-F54D-4CF3-A1D1-3306AE5DB425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668B9C31-8542-4A0C-BC23-EBC3EE3BDF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="252" windowWidth="14724" windowHeight="11796" xr2:uid="{1AB0E819-A3E6-4AC3-B4B0-A981FF41647F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AB0E819-A3E6-4AC3-B4B0-A981FF41647F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>Word-en</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>have or possess a phenotype</t>
+  </si>
+  <si>
+    <t>KGE24-QCB2-17</t>
+  </si>
+  <si>
+    <t>has abundance</t>
+  </si>
+  <si>
+    <t>A taxon having a relative abundance in a sample</t>
   </si>
 </sst>
 </file>
@@ -923,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF294AB-FC49-4B46-A4D6-109AF2CD29AA}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1443,6 +1452,17 @@
         <v>134</v>
       </c>
     </row>
+    <row r="47" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D0DA472E-897A-4BBD-B9D5-CC6252BE228A}"/>
